--- a/data/Lakes/LakeAlice_4e076d0cdf.xlsx
+++ b/data/Lakes/LakeAlice_4e076d0cdf.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9220,7 +9220,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">

--- a/data/Lakes/LakeAlice_4e076d0cdf.xlsx
+++ b/data/Lakes/LakeAlice_4e076d0cdf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="317">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>1.900</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>0.0019</t>
@@ -91,7 +91,7 @@
     <t>46.000</t>
   </si>
   <si>
-    <t>44</t>
+    <t>44.0</t>
   </si>
   <si>
     <t>&lt;0.0020</t>
@@ -109,7 +109,7 @@
     <t>4.600</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>1.290</t>
@@ -121,7 +121,7 @@
     <t>&lt;0.0100</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.4710</t>
@@ -139,7 +139,7 @@
     <t>2.900</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>0.7900</t>
@@ -175,7 +175,7 @@
     <t>7.200</t>
   </si>
   <si>
-    <t>21</t>
+    <t>21.0</t>
   </si>
   <si>
     <t>0.2820</t>
@@ -376,7 +376,7 @@
     <t>14.000</t>
   </si>
   <si>
-    <t>38</t>
+    <t>38.0</t>
   </si>
   <si>
     <t>7.950</t>
@@ -412,7 +412,7 @@
     <t>0.01130</t>
   </si>
   <si>
-    <t>43</t>
+    <t>43.0</t>
   </si>
   <si>
     <t>8.070</t>
@@ -448,7 +448,7 @@
     <t>9.900</t>
   </si>
   <si>
-    <t>39</t>
+    <t>39.0</t>
   </si>
   <si>
     <t>9.310</t>
@@ -553,7 +553,7 @@
     <t>3.400</t>
   </si>
   <si>
-    <t>148</t>
+    <t>147.6</t>
   </si>
   <si>
     <t>6.880</t>
@@ -631,7 +631,7 @@
     <t>5.500</t>
   </si>
   <si>
-    <t>120</t>
+    <t>119.6</t>
   </si>
   <si>
     <t>7.880</t>
@@ -682,6 +682,9 @@
     <t>0.0530</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>8.610</t>
   </si>
   <si>
@@ -697,7 +700,7 @@
     <t>49.000</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>8.730</t>
@@ -733,6 +736,9 @@
     <t>6.700</t>
   </si>
   <si>
+    <t>12.4</t>
+  </si>
+  <si>
     <t>7.590</t>
   </si>
   <si>
@@ -745,7 +751,7 @@
     <t>0.0730</t>
   </si>
   <si>
-    <t>913</t>
+    <t>912.8</t>
   </si>
   <si>
     <t>1.240</t>
@@ -799,6 +805,114 @@
     <t>0.1930</t>
   </si>
   <si>
+    <t>0.31630</t>
+  </si>
+  <si>
+    <t>0.0320</t>
+  </si>
+  <si>
+    <t>4.800</t>
+  </si>
+  <si>
+    <t>8.770</t>
+  </si>
+  <si>
+    <t>1.250</t>
+  </si>
+  <si>
+    <t>0.1640</t>
+  </si>
+  <si>
+    <t>0.04380</t>
+  </si>
+  <si>
+    <t>8.540</t>
+  </si>
+  <si>
+    <t>0.1470</t>
+  </si>
+  <si>
+    <t>0.20790</t>
+  </si>
+  <si>
+    <t>22.000</t>
+  </si>
+  <si>
+    <t>8.240</t>
+  </si>
+  <si>
+    <t>1.600</t>
+  </si>
+  <si>
+    <t>0.03290</t>
+  </si>
+  <si>
+    <t>0.3090</t>
+  </si>
+  <si>
+    <t>5.300</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>7.800</t>
+  </si>
+  <si>
+    <t>1.960</t>
+  </si>
+  <si>
+    <t>0.1460</t>
+  </si>
+  <si>
+    <t>&lt;0.0500</t>
+  </si>
+  <si>
+    <t>0.08000</t>
+  </si>
+  <si>
+    <t>0.0700</t>
+  </si>
+  <si>
+    <t>11.500</t>
+  </si>
+  <si>
+    <t>7.620</t>
+  </si>
+  <si>
+    <t>0.4410</t>
+  </si>
+  <si>
+    <t>1.820</t>
+  </si>
+  <si>
+    <t>0.1590</t>
+  </si>
+  <si>
+    <t>0.0220</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>8.480</t>
+  </si>
+  <si>
+    <t>1.840</t>
+  </si>
+  <si>
+    <t>2.47570</t>
+  </si>
+  <si>
+    <t>24.800</t>
+  </si>
+  <si>
+    <t>8.370</t>
+  </si>
+  <si>
+    <t>0.1690</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -833,6 +947,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1209,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1375,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -1278,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -1298,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1318,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -1372,7 +1489,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1392,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1412,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1432,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1486,7 +1603,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1506,7 +1623,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1526,7 +1643,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1546,7 +1663,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1600,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1620,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1640,7 +1757,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1660,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1714,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1734,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1754,7 +1871,7 @@
         <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1774,7 +1891,7 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1828,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1848,7 +1965,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1868,7 +1985,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1888,7 +2005,7 @@
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1942,7 +2059,7 @@
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1962,7 +2079,7 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1982,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2002,7 +2119,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2056,7 +2173,7 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2076,7 +2193,7 @@
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2096,7 +2213,7 @@
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2116,7 +2233,7 @@
         <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2170,7 +2287,7 @@
         <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2190,7 +2307,7 @@
         <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2210,7 +2327,7 @@
         <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2230,7 +2347,7 @@
         <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2284,7 +2401,7 @@
         <v>47</v>
       </c>
       <c r="G56" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2304,7 +2421,7 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2324,7 +2441,7 @@
         <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2344,7 +2461,7 @@
         <v>62</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2398,7 +2515,7 @@
         <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2418,7 +2535,7 @@
         <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2438,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2458,7 +2575,7 @@
         <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2512,13 +2629,13 @@
         <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G68" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2538,13 +2655,13 @@
         <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F69" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G69" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2564,13 +2681,13 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F70" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G70" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2590,10 +2707,10 @@
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F71" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2613,10 +2730,10 @@
         <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F72" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2636,13 +2753,13 @@
         <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2662,13 +2779,13 @@
         <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F74" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G74" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2688,13 +2805,13 @@
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F75" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G75" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2714,10 +2831,10 @@
         <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F76" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2737,10 +2854,10 @@
         <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2760,13 +2877,13 @@
         <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G78" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2786,13 +2903,13 @@
         <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F79" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2812,13 +2929,13 @@
         <v>77</v>
       </c>
       <c r="E80" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F80" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G80" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2838,10 +2955,10 @@
         <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2861,10 +2978,10 @@
         <v>79</v>
       </c>
       <c r="E82" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2884,13 +3001,13 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F83" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2910,13 +3027,13 @@
         <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F84" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G84" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2936,13 +3053,13 @@
         <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F85" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G85" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -2962,13 +3079,13 @@
         <v>80</v>
       </c>
       <c r="E86" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F86" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G86" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2988,10 +3105,10 @@
         <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F87" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3011,10 +3128,10 @@
         <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F88" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3034,13 +3151,13 @@
         <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3060,13 +3177,13 @@
         <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F90" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G90" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3086,13 +3203,13 @@
         <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F91" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G91" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3112,13 +3229,13 @@
         <v>84</v>
       </c>
       <c r="E92" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G92" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3138,10 +3255,10 @@
         <v>85</v>
       </c>
       <c r="E93" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F93" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3161,10 +3278,10 @@
         <v>86</v>
       </c>
       <c r="E94" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F94" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3184,13 +3301,13 @@
         <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F95" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3210,13 +3327,13 @@
         <v>87</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F96" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G96" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3236,13 +3353,13 @@
         <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F97" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G97" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3262,13 +3379,13 @@
         <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F98" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G98" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3288,10 +3405,10 @@
         <v>88</v>
       </c>
       <c r="E99" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F99" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3311,10 +3428,10 @@
         <v>89</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3334,7 +3451,7 @@
         <v>90</v>
       </c>
       <c r="G101" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3354,13 +3471,13 @@
         <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F102" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G102" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3383,13 +3500,13 @@
         <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F103" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G103" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3412,13 +3529,13 @@
         <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F104" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G104" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3441,7 +3558,7 @@
         <v>92</v>
       </c>
       <c r="E105" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G105" t="s">
         <v>8</v>
@@ -3467,13 +3584,13 @@
         <v>93</v>
       </c>
       <c r="E106" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F106" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G106" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3496,10 +3613,10 @@
         <v>94</v>
       </c>
       <c r="E107" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F107" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3522,10 +3639,10 @@
         <v>95</v>
       </c>
       <c r="E108" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F108" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3548,7 +3665,7 @@
         <v>96</v>
       </c>
       <c r="G109" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3568,13 +3685,13 @@
         <v>97</v>
       </c>
       <c r="E110" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F110" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G110" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3597,13 +3714,13 @@
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F111" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G111" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3626,13 +3743,13 @@
         <v>35</v>
       </c>
       <c r="E112" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F112" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G112" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3655,7 +3772,7 @@
         <v>98</v>
       </c>
       <c r="E113" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G113" t="s">
         <v>8</v>
@@ -3681,13 +3798,13 @@
         <v>99</v>
       </c>
       <c r="E114" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G114" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3710,10 +3827,10 @@
         <v>100</v>
       </c>
       <c r="E115" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F115" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3736,10 +3853,10 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F116" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3762,7 +3879,7 @@
         <v>101</v>
       </c>
       <c r="G117" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3782,13 +3899,13 @@
         <v>102</v>
       </c>
       <c r="E118" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F118" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G118" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3808,13 +3925,13 @@
         <v>103</v>
       </c>
       <c r="E119" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F119" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G119" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3834,13 +3951,13 @@
         <v>31</v>
       </c>
       <c r="E120" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F120" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G120" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3860,13 +3977,13 @@
         <v>39</v>
       </c>
       <c r="E121" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F121" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G121" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3886,10 +4003,10 @@
         <v>104</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F122" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3909,10 +4026,10 @@
         <v>105</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F123" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -3932,7 +4049,7 @@
         <v>106</v>
       </c>
       <c r="G124" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -3952,13 +4069,13 @@
         <v>107</v>
       </c>
       <c r="E125" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F125" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G125" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -3981,13 +4098,13 @@
         <v>108</v>
       </c>
       <c r="E126" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F126" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G126" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4010,13 +4127,13 @@
         <v>31</v>
       </c>
       <c r="E127" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F127" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G127" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4039,7 +4156,7 @@
         <v>109</v>
       </c>
       <c r="E128" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G128" t="s">
         <v>8</v>
@@ -4065,13 +4182,13 @@
         <v>62</v>
       </c>
       <c r="E129" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F129" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G129" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4094,10 +4211,10 @@
         <v>32</v>
       </c>
       <c r="E130" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F130" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4120,10 +4237,10 @@
         <v>110</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F131" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4146,7 +4263,7 @@
         <v>111</v>
       </c>
       <c r="G132" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4166,13 +4283,13 @@
         <v>112</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F133" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G133" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4195,13 +4312,13 @@
         <v>65</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F134" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G134" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4224,13 +4341,13 @@
         <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F135" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G135" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4253,7 +4370,7 @@
         <v>113</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G136" t="s">
         <v>8</v>
@@ -4279,13 +4396,13 @@
         <v>114</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G137" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4308,10 +4425,10 @@
         <v>115</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F138" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4334,10 +4451,10 @@
         <v>116</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4360,7 +4477,7 @@
         <v>117</v>
       </c>
       <c r="G140" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4380,13 +4497,13 @@
         <v>118</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G141" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4409,13 +4526,13 @@
         <v>119</v>
       </c>
       <c r="E142" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F142" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G142" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4438,13 +4555,13 @@
         <v>120</v>
       </c>
       <c r="E143" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F143" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G143" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4467,7 +4584,7 @@
         <v>121</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G144" t="s">
         <v>8</v>
@@ -4493,13 +4610,13 @@
         <v>122</v>
       </c>
       <c r="E145" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G145" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4522,10 +4639,10 @@
         <v>123</v>
       </c>
       <c r="E146" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F146" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4548,10 +4665,10 @@
         <v>124</v>
       </c>
       <c r="E147" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F147" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4574,7 +4691,7 @@
         <v>125</v>
       </c>
       <c r="G148" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4594,13 +4711,13 @@
         <v>126</v>
       </c>
       <c r="E149" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G149" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4623,13 +4740,13 @@
         <v>127</v>
       </c>
       <c r="E150" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F150" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G150" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4652,13 +4769,13 @@
         <v>41</v>
       </c>
       <c r="E151" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G151" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4681,7 +4798,7 @@
         <v>128</v>
       </c>
       <c r="E152" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G152" t="s">
         <v>8</v>
@@ -4707,13 +4824,13 @@
         <v>95</v>
       </c>
       <c r="E153" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G153" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4736,10 +4853,10 @@
         <v>129</v>
       </c>
       <c r="E154" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4762,10 +4879,10 @@
         <v>130</v>
       </c>
       <c r="E155" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -4788,7 +4905,7 @@
         <v>131</v>
       </c>
       <c r="G156" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4808,13 +4925,13 @@
         <v>118</v>
       </c>
       <c r="E157" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G157" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -4837,13 +4954,13 @@
         <v>76</v>
       </c>
       <c r="E158" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G158" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4866,13 +4983,13 @@
         <v>132</v>
       </c>
       <c r="E159" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G159" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4895,7 +5012,7 @@
         <v>133</v>
       </c>
       <c r="E160" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G160" t="s">
         <v>8</v>
@@ -4921,13 +5038,13 @@
         <v>134</v>
       </c>
       <c r="E161" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G161" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -4950,10 +5067,10 @@
         <v>115</v>
       </c>
       <c r="E162" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F162" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -4976,10 +5093,10 @@
         <v>135</v>
       </c>
       <c r="E163" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F163" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5002,7 +5119,7 @@
         <v>136</v>
       </c>
       <c r="G164" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5022,13 +5139,13 @@
         <v>137</v>
       </c>
       <c r="E165" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F165" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G165" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5051,13 +5168,13 @@
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G166" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5080,13 +5197,13 @@
         <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F167" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G167" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5109,7 +5226,7 @@
         <v>139</v>
       </c>
       <c r="E168" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G168" t="s">
         <v>8</v>
@@ -5135,13 +5252,13 @@
         <v>84</v>
       </c>
       <c r="E169" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F169" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G169" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5164,10 +5281,10 @@
         <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F170" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5190,10 +5307,10 @@
         <v>141</v>
       </c>
       <c r="E171" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F171" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5216,7 +5333,7 @@
         <v>142</v>
       </c>
       <c r="G172" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5236,13 +5353,13 @@
         <v>68</v>
       </c>
       <c r="E173" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F173" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G173" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5265,13 +5382,13 @@
         <v>143</v>
       </c>
       <c r="E174" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F174" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G174" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5294,13 +5411,13 @@
         <v>144</v>
       </c>
       <c r="E175" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F175" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G175" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5323,7 +5440,7 @@
         <v>145</v>
       </c>
       <c r="E176" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G176" t="s">
         <v>8</v>
@@ -5349,13 +5466,13 @@
         <v>58</v>
       </c>
       <c r="E177" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F177" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G177" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5378,10 +5495,10 @@
         <v>45</v>
       </c>
       <c r="E178" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F178" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5404,10 +5521,10 @@
         <v>60</v>
       </c>
       <c r="E179" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F179" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5430,7 +5547,7 @@
         <v>146</v>
       </c>
       <c r="G180" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5450,13 +5567,13 @@
         <v>122</v>
       </c>
       <c r="E181" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F181" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G181" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5479,13 +5596,13 @@
         <v>147</v>
       </c>
       <c r="E182" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F182" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G182" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5508,13 +5625,13 @@
         <v>41</v>
       </c>
       <c r="E183" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F183" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G183" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5537,7 +5654,7 @@
         <v>148</v>
       </c>
       <c r="E184" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G184" t="s">
         <v>8</v>
@@ -5563,13 +5680,13 @@
         <v>149</v>
       </c>
       <c r="E185" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F185" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G185" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5592,10 +5709,10 @@
         <v>150</v>
       </c>
       <c r="E186" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F186" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5618,10 +5735,10 @@
         <v>151</v>
       </c>
       <c r="E187" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F187" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5644,7 +5761,7 @@
         <v>152</v>
       </c>
       <c r="G188" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5664,13 +5781,13 @@
         <v>153</v>
       </c>
       <c r="E189" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F189" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G189" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5693,13 +5810,13 @@
         <v>154</v>
       </c>
       <c r="E190" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F190" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G190" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5722,13 +5839,13 @@
         <v>41</v>
       </c>
       <c r="E191" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F191" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G191" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5751,7 +5868,7 @@
         <v>155</v>
       </c>
       <c r="E192" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G192" t="s">
         <v>8</v>
@@ -5777,13 +5894,13 @@
         <v>26</v>
       </c>
       <c r="E193" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F193" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G193" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -5806,10 +5923,10 @@
         <v>156</v>
       </c>
       <c r="E194" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F194" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -5832,10 +5949,10 @@
         <v>157</v>
       </c>
       <c r="E195" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F195" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -5858,7 +5975,7 @@
         <v>158</v>
       </c>
       <c r="G196" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -5878,13 +5995,13 @@
         <v>159</v>
       </c>
       <c r="E197" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F197" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G197" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -5907,13 +6024,13 @@
         <v>160</v>
       </c>
       <c r="E198" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F198" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G198" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -5936,13 +6053,13 @@
         <v>41</v>
       </c>
       <c r="E199" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F199" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G199" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -5965,7 +6082,7 @@
         <v>161</v>
       </c>
       <c r="E200" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G200" t="s">
         <v>8</v>
@@ -5991,13 +6108,13 @@
         <v>26</v>
       </c>
       <c r="E201" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F201" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G201" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6020,10 +6137,10 @@
         <v>162</v>
       </c>
       <c r="E202" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F202" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6046,10 +6163,10 @@
         <v>163</v>
       </c>
       <c r="E203" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F203" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6072,7 +6189,7 @@
         <v>164</v>
       </c>
       <c r="G204" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6092,13 +6209,13 @@
         <v>159</v>
       </c>
       <c r="E205" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F205" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G205" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6121,13 +6238,13 @@
         <v>165</v>
       </c>
       <c r="E206" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F206" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G206" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6150,13 +6267,13 @@
         <v>41</v>
       </c>
       <c r="E207" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F207" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G207" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6179,7 +6296,7 @@
         <v>166</v>
       </c>
       <c r="E208" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G208" t="s">
         <v>8</v>
@@ -6205,13 +6322,13 @@
         <v>26</v>
       </c>
       <c r="E209" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F209" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G209" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6234,10 +6351,10 @@
         <v>167</v>
       </c>
       <c r="E210" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F210" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6260,10 +6377,10 @@
         <v>168</v>
       </c>
       <c r="E211" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F211" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6286,7 +6403,7 @@
         <v>169</v>
       </c>
       <c r="G212" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6306,13 +6423,13 @@
         <v>170</v>
       </c>
       <c r="E213" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F213" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G213" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6335,13 +6452,13 @@
         <v>171</v>
       </c>
       <c r="E214" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F214" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G214" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6364,13 +6481,13 @@
         <v>41</v>
       </c>
       <c r="E215" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F215" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G215" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6393,7 +6510,7 @@
         <v>172</v>
       </c>
       <c r="E216" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G216" t="s">
         <v>8</v>
@@ -6419,13 +6536,13 @@
         <v>173</v>
       </c>
       <c r="E217" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F217" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G217" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6448,10 +6565,10 @@
         <v>174</v>
       </c>
       <c r="E218" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F218" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6474,10 +6591,10 @@
         <v>175</v>
       </c>
       <c r="E219" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F219" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6500,7 +6617,7 @@
         <v>176</v>
       </c>
       <c r="G220" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6520,13 +6637,13 @@
         <v>177</v>
       </c>
       <c r="E221" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F221" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G221" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6549,13 +6666,13 @@
         <v>178</v>
       </c>
       <c r="E222" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F222" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G222" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6578,13 +6695,13 @@
         <v>179</v>
       </c>
       <c r="E223" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F223" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G223" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6607,7 +6724,7 @@
         <v>180</v>
       </c>
       <c r="E224" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G224" t="s">
         <v>8</v>
@@ -6633,13 +6750,13 @@
         <v>181</v>
       </c>
       <c r="E225" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F225" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G225" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6662,10 +6779,10 @@
         <v>78</v>
       </c>
       <c r="E226" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F226" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6688,10 +6805,10 @@
         <v>182</v>
       </c>
       <c r="E227" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F227" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6714,7 +6831,7 @@
         <v>183</v>
       </c>
       <c r="G228" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -6734,13 +6851,13 @@
         <v>184</v>
       </c>
       <c r="E229" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F229" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G229" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -6763,13 +6880,13 @@
         <v>185</v>
       </c>
       <c r="E230" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F230" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G230" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -6792,13 +6909,13 @@
         <v>31</v>
       </c>
       <c r="E231" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F231" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G231" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -6821,7 +6938,7 @@
         <v>186</v>
       </c>
       <c r="E232" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G232" t="s">
         <v>8</v>
@@ -6847,13 +6964,13 @@
         <v>187</v>
       </c>
       <c r="E233" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F233" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G233" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -6876,10 +6993,10 @@
         <v>49</v>
       </c>
       <c r="E234" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F234" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -6902,10 +7019,10 @@
         <v>188</v>
       </c>
       <c r="E235" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F235" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -6928,7 +7045,7 @@
         <v>189</v>
       </c>
       <c r="G236" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -6948,13 +7065,13 @@
         <v>190</v>
       </c>
       <c r="E237" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F237" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G237" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -6977,13 +7094,13 @@
         <v>138</v>
       </c>
       <c r="E238" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F238" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G238" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7006,13 +7123,13 @@
         <v>41</v>
       </c>
       <c r="E239" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F239" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G239" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7035,7 +7152,7 @@
         <v>191</v>
       </c>
       <c r="E240" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G240" t="s">
         <v>8</v>
@@ -7061,13 +7178,13 @@
         <v>192</v>
       </c>
       <c r="E241" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F241" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G241" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7090,10 +7207,10 @@
         <v>193</v>
       </c>
       <c r="E242" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F242" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7116,10 +7233,10 @@
         <v>194</v>
       </c>
       <c r="E243" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F243" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7142,7 +7259,7 @@
         <v>176</v>
       </c>
       <c r="G244" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7162,13 +7279,13 @@
         <v>192</v>
       </c>
       <c r="E245" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F245" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G245" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7191,13 +7308,13 @@
         <v>65</v>
       </c>
       <c r="E246" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F246" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G246" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7220,13 +7337,13 @@
         <v>31</v>
       </c>
       <c r="E247" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F247" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G247" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7249,7 +7366,7 @@
         <v>195</v>
       </c>
       <c r="E248" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G248" t="s">
         <v>8</v>
@@ -7275,13 +7392,13 @@
         <v>62</v>
       </c>
       <c r="E249" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F249" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G249" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7304,10 +7421,10 @@
         <v>69</v>
       </c>
       <c r="E250" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F250" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7330,10 +7447,10 @@
         <v>135</v>
       </c>
       <c r="E251" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F251" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7356,7 +7473,7 @@
         <v>196</v>
       </c>
       <c r="G252" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7376,13 +7493,13 @@
         <v>122</v>
       </c>
       <c r="E253" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F253" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G253" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7405,13 +7522,13 @@
         <v>197</v>
       </c>
       <c r="E254" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F254" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G254" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7434,13 +7551,13 @@
         <v>41</v>
       </c>
       <c r="E255" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F255" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G255" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7463,7 +7580,7 @@
         <v>198</v>
       </c>
       <c r="E256" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G256" t="s">
         <v>8</v>
@@ -7489,13 +7606,13 @@
         <v>199</v>
       </c>
       <c r="E257" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F257" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G257" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7518,10 +7635,10 @@
         <v>200</v>
       </c>
       <c r="E258" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F258" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7544,10 +7661,10 @@
         <v>201</v>
       </c>
       <c r="E259" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F259" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7570,7 +7687,7 @@
         <v>202</v>
       </c>
       <c r="G260" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7590,13 +7707,13 @@
         <v>203</v>
       </c>
       <c r="E261" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F261" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G261" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7619,13 +7736,13 @@
         <v>204</v>
       </c>
       <c r="E262" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F262" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G262" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7648,13 +7765,13 @@
         <v>205</v>
       </c>
       <c r="E263" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F263" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G263" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7677,7 +7794,7 @@
         <v>206</v>
       </c>
       <c r="E264" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G264" t="s">
         <v>8</v>
@@ -7703,13 +7820,13 @@
         <v>62</v>
       </c>
       <c r="E265" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F265" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G265" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7732,10 +7849,10 @@
         <v>81</v>
       </c>
       <c r="E266" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F266" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7758,10 +7875,10 @@
         <v>207</v>
       </c>
       <c r="E267" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F267" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -7784,7 +7901,7 @@
         <v>208</v>
       </c>
       <c r="G268" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -7804,13 +7921,13 @@
         <v>209</v>
       </c>
       <c r="E269" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F269" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G269" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H269">
         <v>500</v>
@@ -7833,13 +7950,13 @@
         <v>178</v>
       </c>
       <c r="E270" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F270" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G270" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -7862,13 +7979,13 @@
         <v>41</v>
       </c>
       <c r="E271" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F271" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G271" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -7891,7 +8008,7 @@
         <v>210</v>
       </c>
       <c r="E272" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G272" t="s">
         <v>8</v>
@@ -7917,13 +8034,13 @@
         <v>211</v>
       </c>
       <c r="E273" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F273" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G273" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -7946,10 +8063,10 @@
         <v>81</v>
       </c>
       <c r="E274" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F274" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -7972,10 +8089,10 @@
         <v>212</v>
       </c>
       <c r="E275" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F275" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -7998,7 +8115,7 @@
         <v>213</v>
       </c>
       <c r="G276" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8018,13 +8135,13 @@
         <v>214</v>
       </c>
       <c r="E277" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F277" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G277" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8047,13 +8164,13 @@
         <v>215</v>
       </c>
       <c r="E278" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F278" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G278" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8076,13 +8193,13 @@
         <v>41</v>
       </c>
       <c r="E279" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F279" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G279" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8105,7 +8222,7 @@
         <v>216</v>
       </c>
       <c r="E280" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G280" t="s">
         <v>8</v>
@@ -8131,13 +8248,13 @@
         <v>217</v>
       </c>
       <c r="E281" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F281" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G281" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8160,10 +8277,10 @@
         <v>218</v>
       </c>
       <c r="E282" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F282" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8186,10 +8303,10 @@
         <v>219</v>
       </c>
       <c r="E283" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F283" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8212,7 +8329,7 @@
         <v>220</v>
       </c>
       <c r="G284" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8232,13 +8349,13 @@
         <v>221</v>
       </c>
       <c r="E285" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F285" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G285" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8261,13 +8378,13 @@
         <v>65</v>
       </c>
       <c r="E286" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F286" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G286" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8287,16 +8404,16 @@
         <v>45008.44027777778</v>
       </c>
       <c r="D287" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="E287" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F287" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G287" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8316,10 +8433,10 @@
         <v>45008.44027777778</v>
       </c>
       <c r="D288" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E288" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G288" t="s">
         <v>8</v>
@@ -8345,13 +8462,13 @@
         <v>58</v>
       </c>
       <c r="E289" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F289" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G289" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8371,13 +8488,13 @@
         <v>45008.44027777778</v>
       </c>
       <c r="D290" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E290" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F290" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8397,13 +8514,13 @@
         <v>45008.44027777778</v>
       </c>
       <c r="D291" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E291" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F291" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8423,10 +8540,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D292" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G292" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8446,13 +8563,13 @@
         <v>23</v>
       </c>
       <c r="E293" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F293" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G293" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8472,16 +8589,16 @@
         <v>45027.41805555556</v>
       </c>
       <c r="D294" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E294" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F294" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G294" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8501,16 +8618,16 @@
         <v>45027.41805555556</v>
       </c>
       <c r="D295" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E295" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F295" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G295" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8530,10 +8647,10 @@
         <v>45027.41805555556</v>
       </c>
       <c r="D296" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E296" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G296" t="s">
         <v>8</v>
@@ -8559,13 +8676,13 @@
         <v>211</v>
       </c>
       <c r="E297" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F297" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G297" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8585,13 +8702,13 @@
         <v>45027.41805555556</v>
       </c>
       <c r="D298" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E298" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F298" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8611,13 +8728,13 @@
         <v>45027.41805555556</v>
       </c>
       <c r="D299" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E299" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F299" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8637,10 +8754,10 @@
         <v>45127.00048611111</v>
       </c>
       <c r="D300" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G300" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8660,13 +8777,13 @@
         <v>47</v>
       </c>
       <c r="E301" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F301" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G301" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8689,13 +8806,13 @@
         <v>30</v>
       </c>
       <c r="E302" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F302" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G302" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8718,13 +8835,13 @@
         <v>41</v>
       </c>
       <c r="E303" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F303" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G303" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8744,10 +8861,10 @@
         <v>45127.48888888889</v>
       </c>
       <c r="D304" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E304" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G304" t="s">
         <v>8</v>
@@ -8770,16 +8887,16 @@
         <v>45127.48888888889</v>
       </c>
       <c r="D305" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E305" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F305" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G305" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H305">
         <v>500</v>
@@ -8799,13 +8916,13 @@
         <v>45127.48888888889</v>
       </c>
       <c r="D306" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E306" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F306" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -8825,13 +8942,13 @@
         <v>45127.48888888889</v>
       </c>
       <c r="D307" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E307" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F307" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -8851,10 +8968,10 @@
         <v>45155.00048611111</v>
       </c>
       <c r="D308" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G308" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -8871,16 +8988,16 @@
         <v>45155.43055555555</v>
       </c>
       <c r="D309" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E309" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F309" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G309" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H309">
         <v>500</v>
@@ -8900,16 +9017,16 @@
         <v>45155.43055555555</v>
       </c>
       <c r="D310" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E310" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F310" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G310" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -8929,16 +9046,16 @@
         <v>45155.43055555555</v>
       </c>
       <c r="D311" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E311" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F311" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G311" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -8958,10 +9075,10 @@
         <v>45155.43055555555</v>
       </c>
       <c r="D312" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E312" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G312" t="s">
         <v>8</v>
@@ -8987,13 +9104,13 @@
         <v>149</v>
       </c>
       <c r="E313" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F313" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G313" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9016,10 +9133,10 @@
         <v>115</v>
       </c>
       <c r="E314" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F314" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9039,13 +9156,13 @@
         <v>45155.43055555555</v>
       </c>
       <c r="D315" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E315" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F315" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9065,10 +9182,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D316" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G316" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9085,16 +9202,16 @@
         <v>45197.32708333333</v>
       </c>
       <c r="D317" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E317" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F317" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G317" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9117,13 +9234,13 @@
         <v>185</v>
       </c>
       <c r="E318" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F318" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G318" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9143,16 +9260,16 @@
         <v>45197.32708333333</v>
       </c>
       <c r="D319" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E319" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F319" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G319" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9172,10 +9289,10 @@
         <v>45197.32708333333</v>
       </c>
       <c r="D320" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E320" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G320" t="s">
         <v>8</v>
@@ -9201,13 +9318,13 @@
         <v>39</v>
       </c>
       <c r="E321" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F321" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G321" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H321">
         <v>600</v>
@@ -9227,13 +9344,13 @@
         <v>45197.32708333333</v>
       </c>
       <c r="D322" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E322" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F322" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H322">
         <v>600</v>
@@ -9253,13 +9370,13 @@
         <v>45197.32708333333</v>
       </c>
       <c r="D323" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E323" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F323" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H323">
         <v>600</v>
@@ -9279,10 +9396,10 @@
         <v>45210.00048611111</v>
       </c>
       <c r="D324" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G324" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9302,13 +9419,13 @@
         <v>112</v>
       </c>
       <c r="E325" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F325" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G325" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H325">
         <v>600</v>
@@ -9328,16 +9445,16 @@
         <v>45210.46388888889</v>
       </c>
       <c r="D326" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E326" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F326" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G326" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9360,13 +9477,13 @@
         <v>41</v>
       </c>
       <c r="E327" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F327" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G327" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9386,10 +9503,10 @@
         <v>45210.46388888889</v>
       </c>
       <c r="D328" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E328" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G328" t="s">
         <v>8</v>
@@ -9415,13 +9532,13 @@
         <v>58</v>
       </c>
       <c r="E329" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F329" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G329" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H329">
         <v>600</v>
@@ -9441,13 +9558,13 @@
         <v>45210.46388888889</v>
       </c>
       <c r="D330" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E330" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F330" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H330">
         <v>600</v>
@@ -9470,10 +9587,10 @@
         <v>97</v>
       </c>
       <c r="E331" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F331" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H331">
         <v>600</v>
@@ -9493,10 +9610,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D332" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G332" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H332">
         <v>600</v>
@@ -9513,16 +9630,16 @@
         <v>45253.37916666667</v>
       </c>
       <c r="D333" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E333" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F333" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G333" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H333">
         <v>600</v>
@@ -9542,16 +9659,16 @@
         <v>45253.37916666667</v>
       </c>
       <c r="D334" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E334" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F334" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G334" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H334">
         <v>600</v>
@@ -9574,13 +9691,13 @@
         <v>41</v>
       </c>
       <c r="E335" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F335" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G335" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H335">
         <v>600</v>
@@ -9600,10 +9717,10 @@
         <v>45253.37916666667</v>
       </c>
       <c r="D336" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E336" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G336" t="s">
         <v>8</v>
@@ -9629,13 +9746,13 @@
         <v>211</v>
       </c>
       <c r="E337" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F337" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G337" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H337">
         <v>600</v>
@@ -9655,13 +9772,13 @@
         <v>45253.37916666667</v>
       </c>
       <c r="D338" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E338" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F338" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H338">
         <v>600</v>
@@ -9684,10 +9801,10 @@
         <v>54</v>
       </c>
       <c r="E339" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F339" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H339">
         <v>600</v>
@@ -9707,10 +9824,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D340" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G340" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="H340">
         <v>600</v>
@@ -9727,16 +9844,16 @@
         <v>45280.43333333333</v>
       </c>
       <c r="D341" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E341" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F341" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G341" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H341">
         <v>600</v>
@@ -9756,16 +9873,16 @@
         <v>45280.43333333333</v>
       </c>
       <c r="D342" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E342" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F342" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G342" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="H342">
         <v>600</v>
@@ -9788,13 +9905,13 @@
         <v>41</v>
       </c>
       <c r="E343" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F343" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="G343" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H343">
         <v>600</v>
@@ -9814,10 +9931,10 @@
         <v>45280.43333333333</v>
       </c>
       <c r="D344" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E344" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G344" t="s">
         <v>8</v>
@@ -9843,13 +9960,13 @@
         <v>58</v>
       </c>
       <c r="E345" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F345" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="G345" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H345">
         <v>600</v>
@@ -9869,13 +9986,13 @@
         <v>45280.43333333333</v>
       </c>
       <c r="D346" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E346" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F346" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="H346">
         <v>600</v>
@@ -9895,19 +10012,1731 @@
         <v>45280.43333333333</v>
       </c>
       <c r="D347" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E347" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F347" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H347">
         <v>600</v>
       </c>
       <c r="I347">
         <v>9.470000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>16</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D348" t="s">
+        <v>263</v>
+      </c>
+      <c r="G348" t="s">
+        <v>316</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45308.40902777778</v>
+      </c>
+      <c r="D349" t="s">
+        <v>264</v>
+      </c>
+      <c r="E349" t="s">
+        <v>299</v>
+      </c>
+      <c r="F349" t="s">
+        <v>309</v>
+      </c>
+      <c r="G349" t="s">
+        <v>312</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45308.40902777778</v>
+      </c>
+      <c r="D350" t="s">
+        <v>265</v>
+      </c>
+      <c r="E350" t="s">
+        <v>299</v>
+      </c>
+      <c r="F350" t="s">
+        <v>301</v>
+      </c>
+      <c r="G350" t="s">
+        <v>313</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45308.40902777778</v>
+      </c>
+      <c r="D351" t="s">
+        <v>41</v>
+      </c>
+      <c r="E351" t="s">
+        <v>299</v>
+      </c>
+      <c r="F351" t="s">
+        <v>305</v>
+      </c>
+      <c r="G351" t="s">
+        <v>314</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+      <c r="I351">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45308.40902777778</v>
+      </c>
+      <c r="D352" t="s">
+        <v>266</v>
+      </c>
+      <c r="E352" t="s">
+        <v>299</v>
+      </c>
+      <c r="G352" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+      <c r="I352">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45308.40902777778</v>
+      </c>
+      <c r="D353" t="s">
+        <v>217</v>
+      </c>
+      <c r="E353" t="s">
+        <v>299</v>
+      </c>
+      <c r="F353" t="s">
+        <v>310</v>
+      </c>
+      <c r="G353" t="s">
+        <v>315</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45308.40902777778</v>
+      </c>
+      <c r="D354" t="s">
+        <v>267</v>
+      </c>
+      <c r="E354" t="s">
+        <v>299</v>
+      </c>
+      <c r="F354" t="s">
+        <v>307</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>15</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45308.40902777778</v>
+      </c>
+      <c r="D355" t="s">
+        <v>268</v>
+      </c>
+      <c r="E355" t="s">
+        <v>299</v>
+      </c>
+      <c r="F355" t="s">
+        <v>308</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>16</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D356" t="s">
+        <v>269</v>
+      </c>
+      <c r="G356" t="s">
+        <v>316</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45344.44097222222</v>
+      </c>
+      <c r="D357" t="s">
+        <v>177</v>
+      </c>
+      <c r="E357" t="s">
+        <v>299</v>
+      </c>
+      <c r="F357" t="s">
+        <v>309</v>
+      </c>
+      <c r="G357" t="s">
+        <v>312</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45344.44097222222</v>
+      </c>
+      <c r="D358" t="s">
+        <v>30</v>
+      </c>
+      <c r="E358" t="s">
+        <v>299</v>
+      </c>
+      <c r="F358" t="s">
+        <v>301</v>
+      </c>
+      <c r="G358" t="s">
+        <v>313</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45344.44097222222</v>
+      </c>
+      <c r="D359" t="s">
+        <v>35</v>
+      </c>
+      <c r="E359" t="s">
+        <v>299</v>
+      </c>
+      <c r="F359" t="s">
+        <v>305</v>
+      </c>
+      <c r="G359" t="s">
+        <v>314</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45344.44097222222</v>
+      </c>
+      <c r="D360" t="s">
+        <v>270</v>
+      </c>
+      <c r="E360" t="s">
+        <v>299</v>
+      </c>
+      <c r="G360" t="s">
+        <v>8</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>13</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45344.44097222222</v>
+      </c>
+      <c r="D361" t="s">
+        <v>211</v>
+      </c>
+      <c r="E361" t="s">
+        <v>299</v>
+      </c>
+      <c r="F361" t="s">
+        <v>310</v>
+      </c>
+      <c r="G361" t="s">
+        <v>315</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45344.44097222222</v>
+      </c>
+      <c r="D362" t="s">
+        <v>246</v>
+      </c>
+      <c r="E362" t="s">
+        <v>299</v>
+      </c>
+      <c r="F362" t="s">
+        <v>307</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>15</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45344.44097222222</v>
+      </c>
+      <c r="D363" t="s">
+        <v>271</v>
+      </c>
+      <c r="E363" t="s">
+        <v>299</v>
+      </c>
+      <c r="F363" t="s">
+        <v>308</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>16</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D364" t="s">
+        <v>272</v>
+      </c>
+      <c r="G364" t="s">
+        <v>316</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45363.39166666667</v>
+      </c>
+      <c r="D365" t="s">
+        <v>192</v>
+      </c>
+      <c r="E365" t="s">
+        <v>299</v>
+      </c>
+      <c r="F365" t="s">
+        <v>309</v>
+      </c>
+      <c r="G365" t="s">
+        <v>312</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45363.39166666667</v>
+      </c>
+      <c r="D366" t="s">
+        <v>273</v>
+      </c>
+      <c r="E366" t="s">
+        <v>299</v>
+      </c>
+      <c r="F366" t="s">
+        <v>301</v>
+      </c>
+      <c r="G366" t="s">
+        <v>313</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45363.39166666667</v>
+      </c>
+      <c r="D367" t="s">
+        <v>240</v>
+      </c>
+      <c r="E367" t="s">
+        <v>299</v>
+      </c>
+      <c r="F367" t="s">
+        <v>305</v>
+      </c>
+      <c r="G367" t="s">
+        <v>314</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45363.39166666667</v>
+      </c>
+      <c r="D368" t="s">
+        <v>274</v>
+      </c>
+      <c r="E368" t="s">
+        <v>299</v>
+      </c>
+      <c r="G368" t="s">
+        <v>8</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>13</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45363.39166666667</v>
+      </c>
+      <c r="D369" t="s">
+        <v>211</v>
+      </c>
+      <c r="E369" t="s">
+        <v>299</v>
+      </c>
+      <c r="F369" t="s">
+        <v>310</v>
+      </c>
+      <c r="G369" t="s">
+        <v>315</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>14</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45363.39166666667</v>
+      </c>
+      <c r="D370" t="s">
+        <v>275</v>
+      </c>
+      <c r="E370" t="s">
+        <v>299</v>
+      </c>
+      <c r="F370" t="s">
+        <v>307</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45363.39166666667</v>
+      </c>
+      <c r="D371" t="s">
+        <v>43</v>
+      </c>
+      <c r="E371" t="s">
+        <v>299</v>
+      </c>
+      <c r="F371" t="s">
+        <v>308</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>16</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D372" t="s">
+        <v>276</v>
+      </c>
+      <c r="G372" t="s">
+        <v>316</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45398.42638888889</v>
+      </c>
+      <c r="D373" t="s">
+        <v>277</v>
+      </c>
+      <c r="E373" t="s">
+        <v>299</v>
+      </c>
+      <c r="F373" t="s">
+        <v>309</v>
+      </c>
+      <c r="G373" t="s">
+        <v>312</v>
+      </c>
+      <c r="H373">
+        <v>500</v>
+      </c>
+      <c r="I373">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45398.42638888889</v>
+      </c>
+      <c r="D374" t="s">
+        <v>278</v>
+      </c>
+      <c r="E374" t="s">
+        <v>299</v>
+      </c>
+      <c r="F374" t="s">
+        <v>301</v>
+      </c>
+      <c r="G374" t="s">
+        <v>313</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45398.42638888889</v>
+      </c>
+      <c r="D375" t="s">
+        <v>279</v>
+      </c>
+      <c r="E375" t="s">
+        <v>299</v>
+      </c>
+      <c r="F375" t="s">
+        <v>305</v>
+      </c>
+      <c r="G375" t="s">
+        <v>314</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45398.42638888889</v>
+      </c>
+      <c r="D376" t="s">
+        <v>280</v>
+      </c>
+      <c r="E376" t="s">
+        <v>299</v>
+      </c>
+      <c r="G376" t="s">
+        <v>8</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>13</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45398.42638888889</v>
+      </c>
+      <c r="D377" t="s">
+        <v>56</v>
+      </c>
+      <c r="E377" t="s">
+        <v>299</v>
+      </c>
+      <c r="F377" t="s">
+        <v>310</v>
+      </c>
+      <c r="G377" t="s">
+        <v>315</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+      <c r="I377">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>14</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45398.42638888889</v>
+      </c>
+      <c r="D378" t="s">
+        <v>281</v>
+      </c>
+      <c r="E378" t="s">
+        <v>299</v>
+      </c>
+      <c r="F378" t="s">
+        <v>307</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>15</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45398.42638888889</v>
+      </c>
+      <c r="D379" t="s">
+        <v>282</v>
+      </c>
+      <c r="E379" t="s">
+        <v>299</v>
+      </c>
+      <c r="F379" t="s">
+        <v>308</v>
+      </c>
+      <c r="H379">
+        <v>500</v>
+      </c>
+      <c r="I379">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>16</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D380" t="s">
+        <v>183</v>
+      </c>
+      <c r="G380" t="s">
+        <v>316</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45511.39791666667</v>
+      </c>
+      <c r="D381" t="s">
+        <v>283</v>
+      </c>
+      <c r="E381" t="s">
+        <v>299</v>
+      </c>
+      <c r="F381" t="s">
+        <v>311</v>
+      </c>
+      <c r="G381" t="s">
+        <v>312</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+      <c r="I381">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45511.39791666667</v>
+      </c>
+      <c r="D382" t="s">
+        <v>18</v>
+      </c>
+      <c r="E382" t="s">
+        <v>299</v>
+      </c>
+      <c r="F382" t="s">
+        <v>301</v>
+      </c>
+      <c r="G382" t="s">
+        <v>313</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+      <c r="I382">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>12</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45511.39791666667</v>
+      </c>
+      <c r="D383" t="s">
+        <v>31</v>
+      </c>
+      <c r="E383" t="s">
+        <v>299</v>
+      </c>
+      <c r="F383" t="s">
+        <v>305</v>
+      </c>
+      <c r="G383" t="s">
+        <v>314</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+      <c r="I383">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45511.39791666667</v>
+      </c>
+      <c r="D384" t="s">
+        <v>206</v>
+      </c>
+      <c r="E384" t="s">
+        <v>299</v>
+      </c>
+      <c r="G384" t="s">
+        <v>8</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+      <c r="I384">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>13</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45511.39791666667</v>
+      </c>
+      <c r="D385" t="s">
+        <v>211</v>
+      </c>
+      <c r="E385" t="s">
+        <v>299</v>
+      </c>
+      <c r="F385" t="s">
+        <v>310</v>
+      </c>
+      <c r="G385" t="s">
+        <v>315</v>
+      </c>
+      <c r="H385">
+        <v>600</v>
+      </c>
+      <c r="I385">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>14</v>
+      </c>
+      <c r="C386" s="2">
+        <v>45511.39791666667</v>
+      </c>
+      <c r="D386" t="s">
+        <v>81</v>
+      </c>
+      <c r="E386" t="s">
+        <v>299</v>
+      </c>
+      <c r="F386" t="s">
+        <v>307</v>
+      </c>
+      <c r="H386">
+        <v>600</v>
+      </c>
+      <c r="I386">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>15</v>
+      </c>
+      <c r="C387" s="2">
+        <v>45511.39791666667</v>
+      </c>
+      <c r="D387" t="s">
+        <v>284</v>
+      </c>
+      <c r="E387" t="s">
+        <v>299</v>
+      </c>
+      <c r="F387" t="s">
+        <v>308</v>
+      </c>
+      <c r="H387">
+        <v>600</v>
+      </c>
+      <c r="I387">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" t="s">
+        <v>16</v>
+      </c>
+      <c r="C388" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D388" t="s">
+        <v>136</v>
+      </c>
+      <c r="G388" t="s">
+        <v>316</v>
+      </c>
+      <c r="H388">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>10</v>
+      </c>
+      <c r="C389" s="2">
+        <v>45558.41388888889</v>
+      </c>
+      <c r="D389" t="s">
+        <v>285</v>
+      </c>
+      <c r="E389" t="s">
+        <v>299</v>
+      </c>
+      <c r="F389" t="s">
+        <v>309</v>
+      </c>
+      <c r="G389" t="s">
+        <v>312</v>
+      </c>
+      <c r="H389">
+        <v>600</v>
+      </c>
+      <c r="I389">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>11</v>
+      </c>
+      <c r="C390" s="2">
+        <v>45558.41388888889</v>
+      </c>
+      <c r="D390" t="s">
+        <v>286</v>
+      </c>
+      <c r="E390" t="s">
+        <v>299</v>
+      </c>
+      <c r="F390" t="s">
+        <v>301</v>
+      </c>
+      <c r="G390" t="s">
+        <v>313</v>
+      </c>
+      <c r="H390">
+        <v>600</v>
+      </c>
+      <c r="I390">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>12</v>
+      </c>
+      <c r="C391" s="2">
+        <v>45558.41388888889</v>
+      </c>
+      <c r="D391" t="s">
+        <v>35</v>
+      </c>
+      <c r="E391" t="s">
+        <v>299</v>
+      </c>
+      <c r="F391" t="s">
+        <v>305</v>
+      </c>
+      <c r="G391" t="s">
+        <v>314</v>
+      </c>
+      <c r="H391">
+        <v>600</v>
+      </c>
+      <c r="I391">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>8</v>
+      </c>
+      <c r="C392" s="2">
+        <v>45558.41388888889</v>
+      </c>
+      <c r="D392" t="s">
+        <v>287</v>
+      </c>
+      <c r="E392" t="s">
+        <v>299</v>
+      </c>
+      <c r="G392" t="s">
+        <v>8</v>
+      </c>
+      <c r="H392">
+        <v>600</v>
+      </c>
+      <c r="I392">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" t="s">
+        <v>13</v>
+      </c>
+      <c r="C393" s="2">
+        <v>45558.41388888889</v>
+      </c>
+      <c r="D393" t="s">
+        <v>288</v>
+      </c>
+      <c r="E393" t="s">
+        <v>299</v>
+      </c>
+      <c r="F393" t="s">
+        <v>310</v>
+      </c>
+      <c r="G393" t="s">
+        <v>315</v>
+      </c>
+      <c r="H393">
+        <v>600</v>
+      </c>
+      <c r="I393">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>14</v>
+      </c>
+      <c r="C394" s="2">
+        <v>45558.41388888889</v>
+      </c>
+      <c r="D394" t="s">
+        <v>289</v>
+      </c>
+      <c r="E394" t="s">
+        <v>299</v>
+      </c>
+      <c r="F394" t="s">
+        <v>307</v>
+      </c>
+      <c r="H394">
+        <v>600</v>
+      </c>
+      <c r="I394">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>15</v>
+      </c>
+      <c r="C395" s="2">
+        <v>45558.41388888889</v>
+      </c>
+      <c r="D395" t="s">
+        <v>290</v>
+      </c>
+      <c r="E395" t="s">
+        <v>299</v>
+      </c>
+      <c r="F395" t="s">
+        <v>308</v>
+      </c>
+      <c r="H395">
+        <v>600</v>
+      </c>
+      <c r="I395">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>16</v>
+      </c>
+      <c r="C396" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D396" t="s">
+        <v>136</v>
+      </c>
+      <c r="G396" t="s">
+        <v>316</v>
+      </c>
+      <c r="H396">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" t="s">
+        <v>10</v>
+      </c>
+      <c r="C397" s="2">
+        <v>45587.41388888889</v>
+      </c>
+      <c r="D397" t="s">
+        <v>291</v>
+      </c>
+      <c r="E397" t="s">
+        <v>299</v>
+      </c>
+      <c r="F397" t="s">
+        <v>309</v>
+      </c>
+      <c r="G397" t="s">
+        <v>312</v>
+      </c>
+      <c r="H397">
+        <v>600</v>
+      </c>
+      <c r="I397">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>11</v>
+      </c>
+      <c r="C398" s="2">
+        <v>45587.41388888889</v>
+      </c>
+      <c r="D398" t="s">
+        <v>278</v>
+      </c>
+      <c r="E398" t="s">
+        <v>299</v>
+      </c>
+      <c r="F398" t="s">
+        <v>301</v>
+      </c>
+      <c r="G398" t="s">
+        <v>313</v>
+      </c>
+      <c r="H398">
+        <v>600</v>
+      </c>
+      <c r="I398">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>9</v>
+      </c>
+      <c r="B399" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" s="2">
+        <v>45587.41388888889</v>
+      </c>
+      <c r="D399" t="s">
+        <v>292</v>
+      </c>
+      <c r="E399" t="s">
+        <v>299</v>
+      </c>
+      <c r="F399" t="s">
+        <v>305</v>
+      </c>
+      <c r="G399" t="s">
+        <v>314</v>
+      </c>
+      <c r="H399">
+        <v>600</v>
+      </c>
+      <c r="I399">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" s="2">
+        <v>45587.41388888889</v>
+      </c>
+      <c r="D400" t="s">
+        <v>293</v>
+      </c>
+      <c r="E400" t="s">
+        <v>299</v>
+      </c>
+      <c r="G400" t="s">
+        <v>8</v>
+      </c>
+      <c r="H400">
+        <v>600</v>
+      </c>
+      <c r="I400">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" t="s">
+        <v>13</v>
+      </c>
+      <c r="C401" s="2">
+        <v>45587.41388888889</v>
+      </c>
+      <c r="D401" t="s">
+        <v>211</v>
+      </c>
+      <c r="E401" t="s">
+        <v>299</v>
+      </c>
+      <c r="F401" t="s">
+        <v>310</v>
+      </c>
+      <c r="G401" t="s">
+        <v>315</v>
+      </c>
+      <c r="H401">
+        <v>600</v>
+      </c>
+      <c r="I401">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>9</v>
+      </c>
+      <c r="B402" t="s">
+        <v>14</v>
+      </c>
+      <c r="C402" s="2">
+        <v>45587.41388888889</v>
+      </c>
+      <c r="D402" t="s">
+        <v>294</v>
+      </c>
+      <c r="E402" t="s">
+        <v>299</v>
+      </c>
+      <c r="F402" t="s">
+        <v>307</v>
+      </c>
+      <c r="H402">
+        <v>600</v>
+      </c>
+      <c r="I402">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>9</v>
+      </c>
+      <c r="B403" t="s">
+        <v>15</v>
+      </c>
+      <c r="C403" s="2">
+        <v>45587.41388888889</v>
+      </c>
+      <c r="D403" t="s">
+        <v>89</v>
+      </c>
+      <c r="E403" t="s">
+        <v>299</v>
+      </c>
+      <c r="F403" t="s">
+        <v>308</v>
+      </c>
+      <c r="H403">
+        <v>600</v>
+      </c>
+      <c r="I403">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" t="s">
+        <v>16</v>
+      </c>
+      <c r="C404" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D404" t="s">
+        <v>295</v>
+      </c>
+      <c r="G404" t="s">
+        <v>316</v>
+      </c>
+      <c r="H404">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405" s="2">
+        <v>45636.40208333333</v>
+      </c>
+      <c r="D405" t="s">
+        <v>62</v>
+      </c>
+      <c r="E405" t="s">
+        <v>299</v>
+      </c>
+      <c r="F405" t="s">
+        <v>309</v>
+      </c>
+      <c r="G405" t="s">
+        <v>312</v>
+      </c>
+      <c r="H405">
+        <v>600</v>
+      </c>
+      <c r="I405">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" s="2">
+        <v>45636.40208333333</v>
+      </c>
+      <c r="D406" t="s">
+        <v>296</v>
+      </c>
+      <c r="E406" t="s">
+        <v>299</v>
+      </c>
+      <c r="F406" t="s">
+        <v>301</v>
+      </c>
+      <c r="G406" t="s">
+        <v>313</v>
+      </c>
+      <c r="H406">
+        <v>600</v>
+      </c>
+      <c r="I406">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>9</v>
+      </c>
+      <c r="B407" t="s">
+        <v>12</v>
+      </c>
+      <c r="C407" s="2">
+        <v>45636.40208333333</v>
+      </c>
+      <c r="D407" t="s">
+        <v>240</v>
+      </c>
+      <c r="E407" t="s">
+        <v>299</v>
+      </c>
+      <c r="F407" t="s">
+        <v>305</v>
+      </c>
+      <c r="G407" t="s">
+        <v>314</v>
+      </c>
+      <c r="H407">
+        <v>600</v>
+      </c>
+      <c r="I407">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B408" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" s="2">
+        <v>45636.40208333333</v>
+      </c>
+      <c r="D408" t="s">
+        <v>297</v>
+      </c>
+      <c r="E408" t="s">
+        <v>299</v>
+      </c>
+      <c r="G408" t="s">
+        <v>8</v>
+      </c>
+      <c r="H408">
+        <v>600</v>
+      </c>
+      <c r="I408">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>9</v>
+      </c>
+      <c r="B409" t="s">
+        <v>13</v>
+      </c>
+      <c r="C409" s="2">
+        <v>45636.40208333333</v>
+      </c>
+      <c r="D409" t="s">
+        <v>211</v>
+      </c>
+      <c r="E409" t="s">
+        <v>299</v>
+      </c>
+      <c r="F409" t="s">
+        <v>310</v>
+      </c>
+      <c r="G409" t="s">
+        <v>315</v>
+      </c>
+      <c r="H409">
+        <v>600</v>
+      </c>
+      <c r="I409">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>9</v>
+      </c>
+      <c r="B410" t="s">
+        <v>14</v>
+      </c>
+      <c r="C410" s="2">
+        <v>45636.40208333333</v>
+      </c>
+      <c r="D410" t="s">
+        <v>200</v>
+      </c>
+      <c r="E410" t="s">
+        <v>299</v>
+      </c>
+      <c r="F410" t="s">
+        <v>307</v>
+      </c>
+      <c r="H410">
+        <v>600</v>
+      </c>
+      <c r="I410">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" t="s">
+        <v>15</v>
+      </c>
+      <c r="C411" s="2">
+        <v>45636.40208333333</v>
+      </c>
+      <c r="D411" t="s">
+        <v>298</v>
+      </c>
+      <c r="E411" t="s">
+        <v>299</v>
+      </c>
+      <c r="F411" t="s">
+        <v>308</v>
+      </c>
+      <c r="H411">
+        <v>600</v>
+      </c>
+      <c r="I411">
+        <v>8.369999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeAlice_4e076d0cdf.xlsx
+++ b/data/Lakes/LakeAlice_4e076d0cdf.xlsx
@@ -64,7 +64,7 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0050</t>
